--- a/All_Data/batch.xlsx
+++ b/All_Data/batch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkarkhanvilkar/All Data/DSCIADS2-CAP-OP/All_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pnair/Documents/Capstone/DSCIADS2-CAP-OP/All_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C25A9-5BA2-9649-9DD1-AB54C0432EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B23E7-1E05-C142-815E-621958A32563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4914,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G274" sqref="G274"/>
+    <sheetView tabSelected="1" topLeftCell="D226" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H274" sqref="H274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
